--- a/OUTPUT API/Delta Health 4.15.23 SCHED.xlsx
+++ b/OUTPUT API/Delta Health 4.15.23 SCHED.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="213">
   <si>
     <t>EMPLID</t>
   </si>
@@ -78,6 +78,582 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Hunter, Angelique</t>
+  </si>
+  <si>
+    <t>Halums, Brittney</t>
+  </si>
+  <si>
+    <t>Cross, Destin</t>
+  </si>
+  <si>
+    <t>Radford, Gladys</t>
+  </si>
+  <si>
+    <t>Hale, Shannon</t>
+  </si>
+  <si>
+    <t>Kelly, Joby</t>
+  </si>
+  <si>
+    <t>Lowe, Sherrie</t>
+  </si>
+  <si>
+    <t>Lewis, Susan</t>
+  </si>
+  <si>
+    <t>Towery, Brittany</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
+    <t>04/05/2023</t>
+  </si>
+  <si>
+    <t>04/08/2023</t>
+  </si>
+  <si>
+    <t>04/10/2023</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>04/13/2023</t>
+  </si>
+  <si>
+    <t>04/14/2023</t>
+  </si>
+  <si>
+    <t>04/02/2023</t>
+  </si>
+  <si>
+    <t>04/06/2023</t>
+  </si>
+  <si>
+    <t>04/11/2023</t>
+  </si>
+  <si>
+    <t>04/03/2023</t>
+  </si>
+  <si>
+    <t>04/15/2023</t>
+  </si>
+  <si>
+    <t>04/16/2023</t>
+  </si>
+  <si>
+    <t>04/07/2023</t>
+  </si>
+  <si>
+    <t>04/09/2023</t>
+  </si>
+  <si>
+    <t>6105</t>
+  </si>
+  <si>
+    <t>6130</t>
+  </si>
+  <si>
+    <t>6135</t>
+  </si>
+  <si>
+    <t>7020</t>
+  </si>
+  <si>
+    <t>7070</t>
+  </si>
+  <si>
+    <t>SCHED</t>
+  </si>
+  <si>
+    <t>04/04/2023 07:26</t>
+  </si>
+  <si>
+    <t>04/05/2023 07:22</t>
+  </si>
+  <si>
+    <t>04/08/2023 08:37</t>
+  </si>
+  <si>
+    <t>04/10/2023 07:03</t>
+  </si>
+  <si>
+    <t>04/12/2023 07:00</t>
+  </si>
+  <si>
+    <t>04/13/2023 07:14</t>
+  </si>
+  <si>
+    <t>04/14/2023 07:21</t>
+  </si>
+  <si>
+    <t>04/02/2023 18:52</t>
+  </si>
+  <si>
+    <t>04/04/2023 18:51</t>
+  </si>
+  <si>
+    <t>04/05/2023 18:54</t>
+  </si>
+  <si>
+    <t>04/06/2023 18:54</t>
+  </si>
+  <si>
+    <t>04/11/2023 18:53</t>
+  </si>
+  <si>
+    <t>04/12/2023 18:56</t>
+  </si>
+  <si>
+    <t>04/13/2023 18:53</t>
+  </si>
+  <si>
+    <t>04/02/2023 18:34</t>
+  </si>
+  <si>
+    <t>04/03/2023 18:32</t>
+  </si>
+  <si>
+    <t>04/04/2023 18:35</t>
+  </si>
+  <si>
+    <t>04/05/2023 18:27</t>
+  </si>
+  <si>
+    <t>04/13/2023 18:34</t>
+  </si>
+  <si>
+    <t>04/14/2023 18:39</t>
+  </si>
+  <si>
+    <t>04/15/2023 18:35</t>
+  </si>
+  <si>
+    <t>04/16/2023 18:32</t>
+  </si>
+  <si>
+    <t>04/03/2023 06:43</t>
+  </si>
+  <si>
+    <t>04/06/2023 06:36</t>
+  </si>
+  <si>
+    <t>04/07/2023 06:38</t>
+  </si>
+  <si>
+    <t>04/13/2023 06:38</t>
+  </si>
+  <si>
+    <t>04/14/2023 06:38</t>
+  </si>
+  <si>
+    <t>04/15/2023 06:39</t>
+  </si>
+  <si>
+    <t>04/16/2023 06:38</t>
+  </si>
+  <si>
+    <t>04/06/2023 18:57</t>
+  </si>
+  <si>
+    <t>04/07/2023 18:42</t>
+  </si>
+  <si>
+    <t>04/08/2023 18:55</t>
+  </si>
+  <si>
+    <t>04/09/2023 18:57</t>
+  </si>
+  <si>
+    <t>04/10/2023 18:56</t>
+  </si>
+  <si>
+    <t>04/11/2023 18:54</t>
+  </si>
+  <si>
+    <t>04/11/2023 06:38</t>
+  </si>
+  <si>
+    <t>04/12/2023 06:42</t>
+  </si>
+  <si>
+    <t>04/03/2023 18:33</t>
+  </si>
+  <si>
+    <t>04/04/2023 18:36</t>
+  </si>
+  <si>
+    <t>04/05/2023 18:32</t>
+  </si>
+  <si>
+    <t>04/07/2023 18:33</t>
+  </si>
+  <si>
+    <t>04/14/2023 18:40</t>
+  </si>
+  <si>
+    <t>04/15/2023 18:36</t>
+  </si>
+  <si>
+    <t>04/16/2023 18:34</t>
+  </si>
+  <si>
+    <t>04/02/2023 18:28</t>
+  </si>
+  <si>
+    <t>04/03/2023 18:25</t>
+  </si>
+  <si>
+    <t>04/04/2023 18:29</t>
+  </si>
+  <si>
+    <t>04/05/2023 18:28</t>
+  </si>
+  <si>
+    <t>04/13/2023 18:29</t>
+  </si>
+  <si>
+    <t>04/14/2023 18:26</t>
+  </si>
+  <si>
+    <t>04/15/2023 18:40</t>
+  </si>
+  <si>
+    <t>04/16/2023 18:28</t>
+  </si>
+  <si>
+    <t>04/03/2023 18:56</t>
+  </si>
+  <si>
+    <t>04/04/2023 18:57</t>
+  </si>
+  <si>
+    <t>04/05/2023 17:56</t>
+  </si>
+  <si>
+    <t>04/13/2023 19:04</t>
+  </si>
+  <si>
+    <t>04/14/2023 17:28</t>
+  </si>
+  <si>
+    <t>04/04/2023 19:40</t>
+  </si>
+  <si>
+    <t>04/05/2023 19:31</t>
+  </si>
+  <si>
+    <t>04/08/2023 19:38</t>
+  </si>
+  <si>
+    <t>04/10/2023 19:25</t>
+  </si>
+  <si>
+    <t>04/13/2023 19:17</t>
+  </si>
+  <si>
+    <t>04/14/2023 19:23</t>
+  </si>
+  <si>
+    <t>04/03/2023 07:15</t>
+  </si>
+  <si>
+    <t>04/05/2023 07:21</t>
+  </si>
+  <si>
+    <t>04/06/2023 07:23</t>
+  </si>
+  <si>
+    <t>04/07/2023 07:13</t>
+  </si>
+  <si>
+    <t>04/12/2023 07:09</t>
+  </si>
+  <si>
+    <t>04/13/2023 07:25</t>
+  </si>
+  <si>
+    <t>04/14/2023 07:29</t>
+  </si>
+  <si>
+    <t>04/03/2023 07:11</t>
+  </si>
+  <si>
+    <t>04/04/2023 06:54</t>
+  </si>
+  <si>
+    <t>04/05/2023 06:55</t>
+  </si>
+  <si>
+    <t>04/06/2023 06:55</t>
+  </si>
+  <si>
+    <t>04/14/2023 07:14</t>
+  </si>
+  <si>
+    <t>04/15/2023 07:13</t>
+  </si>
+  <si>
+    <t>04/16/2023 07:16</t>
+  </si>
+  <si>
+    <t>04/17/2023 07:03</t>
+  </si>
+  <si>
+    <t>04/03/2023 19:02</t>
+  </si>
+  <si>
+    <t>04/06/2023 19:08</t>
+  </si>
+  <si>
+    <t>04/07/2023 19:04</t>
+  </si>
+  <si>
+    <t>04/13/2023 19:02</t>
+  </si>
+  <si>
+    <t>04/14/2023 19:08</t>
+  </si>
+  <si>
+    <t>04/15/2023 19:14</t>
+  </si>
+  <si>
+    <t>04/16/2023 19:09</t>
+  </si>
+  <si>
+    <t>04/07/2023 07:00</t>
+  </si>
+  <si>
+    <t>04/08/2023 07:02</t>
+  </si>
+  <si>
+    <t>04/09/2023 07:04</t>
+  </si>
+  <si>
+    <t>04/10/2023 07:00</t>
+  </si>
+  <si>
+    <t>04/11/2023 07:01</t>
+  </si>
+  <si>
+    <t>04/11/2023 19:15</t>
+  </si>
+  <si>
+    <t>04/12/2023 19:15</t>
+  </si>
+  <si>
+    <t>04/04/2023 07:04</t>
+  </si>
+  <si>
+    <t>04/05/2023 07:06</t>
+  </si>
+  <si>
+    <t>04/06/2023 07:09</t>
+  </si>
+  <si>
+    <t>04/08/2023 07:22</t>
+  </si>
+  <si>
+    <t>04/14/2023 07:13</t>
+  </si>
+  <si>
+    <t>04/15/2023 07:15</t>
+  </si>
+  <si>
+    <t>04/16/2023 07:14</t>
+  </si>
+  <si>
+    <t>04/17/2023 07:01</t>
+  </si>
+  <si>
+    <t>04/03/2023 06:55</t>
+  </si>
+  <si>
+    <t>04/04/2023 07:15</t>
+  </si>
+  <si>
+    <t>04/05/2023 06:57</t>
+  </si>
+  <si>
+    <t>04/06/2023 06:59</t>
+  </si>
+  <si>
+    <t>04/14/2023 06:53</t>
+  </si>
+  <si>
+    <t>04/15/2023 06:54</t>
+  </si>
+  <si>
+    <t>04/16/2023 06:53</t>
+  </si>
+  <si>
+    <t>04/17/2023 06:54</t>
+  </si>
+  <si>
+    <t>04/04/2023 07:03</t>
+  </si>
+  <si>
+    <t>04/05/2023 06:00</t>
+  </si>
+  <si>
+    <t>04/06/2023 06:57</t>
+  </si>
+  <si>
+    <t>04/14/2023 05:27</t>
+  </si>
+  <si>
+    <t>04/15/2023 06:38</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>750305</t>
+  </si>
+  <si>
+    <t>691840</t>
+  </si>
+  <si>
+    <t>751819</t>
+  </si>
+  <si>
+    <t>373015</t>
+  </si>
+  <si>
+    <t>578762</t>
+  </si>
+  <si>
+    <t>295387</t>
+  </si>
+  <si>
+    <t>599722</t>
+  </si>
+  <si>
+    <t>534488</t>
+  </si>
+  <si>
+    <t>836738</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>19:31</t>
+  </si>
+  <si>
+    <t>19:38</t>
+  </si>
+  <si>
+    <t>19:25</t>
+  </si>
+  <si>
+    <t>19:17</t>
+  </si>
+  <si>
+    <t>19:23</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>07:21</t>
+  </si>
+  <si>
+    <t>07:23</t>
+  </si>
+  <si>
+    <t>07:13</t>
+  </si>
+  <si>
+    <t>07:09</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>07:29</t>
+  </si>
+  <si>
+    <t>07:11</t>
+  </si>
+  <si>
+    <t>06:54</t>
+  </si>
+  <si>
+    <t>06:55</t>
+  </si>
+  <si>
+    <t>07:14</t>
+  </si>
+  <si>
+    <t>07:16</t>
+  </si>
+  <si>
+    <t>07:03</t>
+  </si>
+  <si>
+    <t>19:02</t>
+  </si>
+  <si>
+    <t>19:08</t>
+  </si>
+  <si>
+    <t>19:04</t>
+  </si>
+  <si>
+    <t>19:14</t>
+  </si>
+  <si>
+    <t>19:09</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>07:02</t>
+  </si>
+  <si>
+    <t>07:04</t>
+  </si>
+  <si>
+    <t>07:01</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>07:06</t>
+  </si>
+  <si>
+    <t>07:22</t>
+  </si>
+  <si>
+    <t>06:57</t>
+  </si>
+  <si>
+    <t>06:59</t>
+  </si>
+  <si>
+    <t>06:53</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>05:27</t>
+  </si>
+  <si>
+    <t>06:38</t>
   </si>
 </sst>
 </file>
@@ -435,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,6 +1082,1679 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:21">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S2" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" t="s">
+        <v>167</v>
+      </c>
+      <c r="T5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s">
+        <v>164</v>
+      </c>
+      <c r="S6" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>165</v>
+      </c>
+      <c r="S7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>165</v>
+      </c>
+      <c r="S8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+      <c r="S9" t="s">
+        <v>167</v>
+      </c>
+      <c r="T9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="S10" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11" t="s">
+        <v>168</v>
+      </c>
+      <c r="T11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+      <c r="S12" t="s">
+        <v>168</v>
+      </c>
+      <c r="T12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+      <c r="S13" t="s">
+        <v>168</v>
+      </c>
+      <c r="T13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" t="s">
+        <v>164</v>
+      </c>
+      <c r="S14" t="s">
+        <v>168</v>
+      </c>
+      <c r="T14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="S15" t="s">
+        <v>168</v>
+      </c>
+      <c r="T15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="S16" t="s">
+        <v>168</v>
+      </c>
+      <c r="T16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="S17" t="s">
+        <v>168</v>
+      </c>
+      <c r="T17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" t="s">
+        <v>169</v>
+      </c>
+      <c r="T18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="S19" t="s">
+        <v>169</v>
+      </c>
+      <c r="T19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="S20" t="s">
+        <v>169</v>
+      </c>
+      <c r="T20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="S21" t="s">
+        <v>169</v>
+      </c>
+      <c r="T21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" t="s">
+        <v>166</v>
+      </c>
+      <c r="S22" t="s">
+        <v>169</v>
+      </c>
+      <c r="T22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" t="s">
+        <v>166</v>
+      </c>
+      <c r="S23" t="s">
+        <v>169</v>
+      </c>
+      <c r="T23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" t="s">
+        <v>164</v>
+      </c>
+      <c r="S24" t="s">
+        <v>169</v>
+      </c>
+      <c r="T24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="S25" t="s">
+        <v>169</v>
+      </c>
+      <c r="T25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="S26" t="s">
+        <v>170</v>
+      </c>
+      <c r="T26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" t="s">
+        <v>164</v>
+      </c>
+      <c r="S27" t="s">
+        <v>170</v>
+      </c>
+      <c r="T27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" t="s">
+        <v>164</v>
+      </c>
+      <c r="S28" t="s">
+        <v>170</v>
+      </c>
+      <c r="T28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s">
+        <v>164</v>
+      </c>
+      <c r="S29" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" t="s">
+        <v>164</v>
+      </c>
+      <c r="S30" t="s">
+        <v>170</v>
+      </c>
+      <c r="T30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" t="s">
+        <v>164</v>
+      </c>
+      <c r="S31" t="s">
+        <v>170</v>
+      </c>
+      <c r="T31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" t="s">
+        <v>164</v>
+      </c>
+      <c r="S32" t="s">
+        <v>170</v>
+      </c>
+      <c r="T32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s">
+        <v>136</v>
+      </c>
+      <c r="S33" t="s">
+        <v>171</v>
+      </c>
+      <c r="T33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" t="s">
+        <v>137</v>
+      </c>
+      <c r="S34" t="s">
+        <v>171</v>
+      </c>
+      <c r="T34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" t="s">
+        <v>138</v>
+      </c>
+      <c r="S35" t="s">
+        <v>171</v>
+      </c>
+      <c r="T35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" t="s">
+        <v>139</v>
+      </c>
+      <c r="S36" t="s">
+        <v>171</v>
+      </c>
+      <c r="T36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" t="s">
+        <v>140</v>
+      </c>
+      <c r="S37" t="s">
+        <v>171</v>
+      </c>
+      <c r="T37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" t="s">
+        <v>171</v>
+      </c>
+      <c r="T38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" t="s">
+        <v>141</v>
+      </c>
+      <c r="K39" t="s">
+        <v>165</v>
+      </c>
+      <c r="S39" t="s">
+        <v>172</v>
+      </c>
+      <c r="T39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" t="s">
+        <v>165</v>
+      </c>
+      <c r="S40" t="s">
+        <v>172</v>
+      </c>
+      <c r="T40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" t="s">
+        <v>164</v>
+      </c>
+      <c r="S41" t="s">
+        <v>172</v>
+      </c>
+      <c r="T41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" t="s">
+        <v>164</v>
+      </c>
+      <c r="S42" t="s">
+        <v>173</v>
+      </c>
+      <c r="T42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" t="s">
+        <v>144</v>
+      </c>
+      <c r="K43" t="s">
+        <v>164</v>
+      </c>
+      <c r="S43" t="s">
+        <v>173</v>
+      </c>
+      <c r="T43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" t="s">
+        <v>164</v>
+      </c>
+      <c r="S44" t="s">
+        <v>173</v>
+      </c>
+      <c r="T44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" t="s">
+        <v>164</v>
+      </c>
+      <c r="S45" t="s">
+        <v>173</v>
+      </c>
+      <c r="T45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>147</v>
+      </c>
+      <c r="S46" t="s">
+        <v>173</v>
+      </c>
+      <c r="T46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" t="s">
+        <v>164</v>
+      </c>
+      <c r="S47" t="s">
+        <v>173</v>
+      </c>
+      <c r="T47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48" t="s">
+        <v>164</v>
+      </c>
+      <c r="S48" t="s">
+        <v>173</v>
+      </c>
+      <c r="T48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20">
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" t="s">
+        <v>150</v>
+      </c>
+      <c r="K49" t="s">
+        <v>164</v>
+      </c>
+      <c r="S49" t="s">
+        <v>173</v>
+      </c>
+      <c r="T49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20">
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" t="s">
+        <v>151</v>
+      </c>
+      <c r="S50" t="s">
+        <v>174</v>
+      </c>
+      <c r="T50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20">
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" t="s">
+        <v>152</v>
+      </c>
+      <c r="K51" t="s">
+        <v>164</v>
+      </c>
+      <c r="S51" t="s">
+        <v>174</v>
+      </c>
+      <c r="T51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20">
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" t="s">
+        <v>153</v>
+      </c>
+      <c r="K52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S52" t="s">
+        <v>174</v>
+      </c>
+      <c r="T52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20">
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" t="s">
+        <v>164</v>
+      </c>
+      <c r="S53" t="s">
+        <v>174</v>
+      </c>
+      <c r="T53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20">
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" t="s">
+        <v>99</v>
+      </c>
+      <c r="I54" t="s">
+        <v>155</v>
+      </c>
+      <c r="K54" t="s">
+        <v>164</v>
+      </c>
+      <c r="S54" t="s">
+        <v>174</v>
+      </c>
+      <c r="T54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" t="s">
+        <v>156</v>
+      </c>
+      <c r="K55" t="s">
+        <v>164</v>
+      </c>
+      <c r="S55" t="s">
+        <v>174</v>
+      </c>
+      <c r="T55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" t="s">
+        <v>101</v>
+      </c>
+      <c r="I56" t="s">
+        <v>157</v>
+      </c>
+      <c r="K56" t="s">
+        <v>164</v>
+      </c>
+      <c r="S56" t="s">
+        <v>174</v>
+      </c>
+      <c r="T56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20">
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" t="s">
+        <v>158</v>
+      </c>
+      <c r="K57" t="s">
+        <v>164</v>
+      </c>
+      <c r="S57" t="s">
+        <v>174</v>
+      </c>
+      <c r="T57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20">
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" t="s">
+        <v>159</v>
+      </c>
+      <c r="S58" t="s">
+        <v>175</v>
+      </c>
+      <c r="T58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20">
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" t="s">
+        <v>160</v>
+      </c>
+      <c r="S59" t="s">
+        <v>175</v>
+      </c>
+      <c r="T59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20">
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" t="s">
+        <v>161</v>
+      </c>
+      <c r="S60" t="s">
+        <v>175</v>
+      </c>
+      <c r="T60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20">
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+      <c r="H61" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" t="s">
+        <v>162</v>
+      </c>
+      <c r="S61" t="s">
+        <v>175</v>
+      </c>
+      <c r="T61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20">
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" t="s">
+        <v>163</v>
+      </c>
+      <c r="S62" t="s">
+        <v>175</v>
+      </c>
+      <c r="T62" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -513,7 +2762,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +2833,1679 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:21">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S2" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" t="s">
+        <v>167</v>
+      </c>
+      <c r="T5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" t="s">
+        <v>164</v>
+      </c>
+      <c r="S6" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>165</v>
+      </c>
+      <c r="S7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>165</v>
+      </c>
+      <c r="S8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+      <c r="S9" t="s">
+        <v>167</v>
+      </c>
+      <c r="T9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="S10" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S11" t="s">
+        <v>168</v>
+      </c>
+      <c r="T11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+      <c r="S12" t="s">
+        <v>168</v>
+      </c>
+      <c r="T12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+      <c r="S13" t="s">
+        <v>168</v>
+      </c>
+      <c r="T13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" t="s">
+        <v>164</v>
+      </c>
+      <c r="S14" t="s">
+        <v>168</v>
+      </c>
+      <c r="T14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>186</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="S15" t="s">
+        <v>168</v>
+      </c>
+      <c r="T15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="S16" t="s">
+        <v>168</v>
+      </c>
+      <c r="T16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="S17" t="s">
+        <v>168</v>
+      </c>
+      <c r="T17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="S18" t="s">
+        <v>169</v>
+      </c>
+      <c r="T18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="S19" t="s">
+        <v>169</v>
+      </c>
+      <c r="T19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="S20" t="s">
+        <v>169</v>
+      </c>
+      <c r="T20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="S21" t="s">
+        <v>169</v>
+      </c>
+      <c r="T21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>166</v>
+      </c>
+      <c r="S22" t="s">
+        <v>169</v>
+      </c>
+      <c r="T22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>166</v>
+      </c>
+      <c r="S23" t="s">
+        <v>169</v>
+      </c>
+      <c r="T23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
+        <v>164</v>
+      </c>
+      <c r="S24" t="s">
+        <v>169</v>
+      </c>
+      <c r="T24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="S25" t="s">
+        <v>169</v>
+      </c>
+      <c r="T25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="S26" t="s">
+        <v>170</v>
+      </c>
+      <c r="T26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" t="s">
+        <v>164</v>
+      </c>
+      <c r="S27" t="s">
+        <v>170</v>
+      </c>
+      <c r="T27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" t="s">
+        <v>164</v>
+      </c>
+      <c r="S28" t="s">
+        <v>170</v>
+      </c>
+      <c r="T28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" t="s">
+        <v>164</v>
+      </c>
+      <c r="S29" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" t="s">
+        <v>164</v>
+      </c>
+      <c r="S30" t="s">
+        <v>170</v>
+      </c>
+      <c r="T30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" t="s">
+        <v>164</v>
+      </c>
+      <c r="S31" t="s">
+        <v>170</v>
+      </c>
+      <c r="T31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" t="s">
+        <v>164</v>
+      </c>
+      <c r="S32" t="s">
+        <v>170</v>
+      </c>
+      <c r="T32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s">
+        <v>200</v>
+      </c>
+      <c r="S33" t="s">
+        <v>171</v>
+      </c>
+      <c r="T33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" t="s">
+        <v>201</v>
+      </c>
+      <c r="S34" t="s">
+        <v>171</v>
+      </c>
+      <c r="T34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" t="s">
+        <v>202</v>
+      </c>
+      <c r="S35" t="s">
+        <v>171</v>
+      </c>
+      <c r="T35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" t="s">
+        <v>200</v>
+      </c>
+      <c r="S36" t="s">
+        <v>171</v>
+      </c>
+      <c r="T36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" t="s">
+        <v>203</v>
+      </c>
+      <c r="S37" t="s">
+        <v>171</v>
+      </c>
+      <c r="T37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" t="s">
+        <v>200</v>
+      </c>
+      <c r="S38" t="s">
+        <v>171</v>
+      </c>
+      <c r="T38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" t="s">
+        <v>204</v>
+      </c>
+      <c r="K39" t="s">
+        <v>165</v>
+      </c>
+      <c r="S39" t="s">
+        <v>172</v>
+      </c>
+      <c r="T39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" t="s">
+        <v>204</v>
+      </c>
+      <c r="K40" t="s">
+        <v>165</v>
+      </c>
+      <c r="S40" t="s">
+        <v>172</v>
+      </c>
+      <c r="T40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" t="s">
+        <v>204</v>
+      </c>
+      <c r="K41" t="s">
+        <v>164</v>
+      </c>
+      <c r="S41" t="s">
+        <v>172</v>
+      </c>
+      <c r="T41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" t="s">
+        <v>202</v>
+      </c>
+      <c r="K42" t="s">
+        <v>164</v>
+      </c>
+      <c r="S42" t="s">
+        <v>173</v>
+      </c>
+      <c r="T42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" t="s">
+        <v>205</v>
+      </c>
+      <c r="K43" t="s">
+        <v>164</v>
+      </c>
+      <c r="S43" t="s">
+        <v>173</v>
+      </c>
+      <c r="T43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" t="s">
+        <v>186</v>
+      </c>
+      <c r="K44" t="s">
+        <v>164</v>
+      </c>
+      <c r="S44" t="s">
+        <v>173</v>
+      </c>
+      <c r="T44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" t="s">
+        <v>206</v>
+      </c>
+      <c r="K45" t="s">
+        <v>164</v>
+      </c>
+      <c r="S45" t="s">
+        <v>173</v>
+      </c>
+      <c r="T45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>185</v>
+      </c>
+      <c r="S46" t="s">
+        <v>173</v>
+      </c>
+      <c r="T46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" t="s">
+        <v>182</v>
+      </c>
+      <c r="K47" t="s">
+        <v>164</v>
+      </c>
+      <c r="S47" t="s">
+        <v>173</v>
+      </c>
+      <c r="T47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" t="s">
+        <v>192</v>
+      </c>
+      <c r="K48" t="s">
+        <v>164</v>
+      </c>
+      <c r="S48" t="s">
+        <v>173</v>
+      </c>
+      <c r="T48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20">
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" t="s">
+        <v>203</v>
+      </c>
+      <c r="K49" t="s">
+        <v>164</v>
+      </c>
+      <c r="S49" t="s">
+        <v>173</v>
+      </c>
+      <c r="T49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20">
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" t="s">
+        <v>191</v>
+      </c>
+      <c r="S50" t="s">
+        <v>174</v>
+      </c>
+      <c r="T50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20">
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" t="s">
+        <v>182</v>
+      </c>
+      <c r="K51" t="s">
+        <v>164</v>
+      </c>
+      <c r="S51" t="s">
+        <v>174</v>
+      </c>
+      <c r="T51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20">
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" t="s">
+        <v>207</v>
+      </c>
+      <c r="K52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S52" t="s">
+        <v>174</v>
+      </c>
+      <c r="T52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20">
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" t="s">
+        <v>208</v>
+      </c>
+      <c r="K53" t="s">
+        <v>164</v>
+      </c>
+      <c r="S53" t="s">
+        <v>174</v>
+      </c>
+      <c r="T53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20">
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" t="s">
+        <v>99</v>
+      </c>
+      <c r="I54" t="s">
+        <v>209</v>
+      </c>
+      <c r="K54" t="s">
+        <v>164</v>
+      </c>
+      <c r="S54" t="s">
+        <v>174</v>
+      </c>
+      <c r="T54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55" t="s">
+        <v>164</v>
+      </c>
+      <c r="S55" t="s">
+        <v>174</v>
+      </c>
+      <c r="T55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" t="s">
+        <v>101</v>
+      </c>
+      <c r="I56" t="s">
+        <v>209</v>
+      </c>
+      <c r="K56" t="s">
+        <v>164</v>
+      </c>
+      <c r="S56" t="s">
+        <v>174</v>
+      </c>
+      <c r="T56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20">
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" t="s">
+        <v>190</v>
+      </c>
+      <c r="K57" t="s">
+        <v>164</v>
+      </c>
+      <c r="S57" t="s">
+        <v>174</v>
+      </c>
+      <c r="T57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20">
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" t="s">
+        <v>194</v>
+      </c>
+      <c r="S58" t="s">
+        <v>175</v>
+      </c>
+      <c r="T58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20">
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" t="s">
+        <v>210</v>
+      </c>
+      <c r="S59" t="s">
+        <v>175</v>
+      </c>
+      <c r="T59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20">
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" t="s">
+        <v>207</v>
+      </c>
+      <c r="S60" t="s">
+        <v>175</v>
+      </c>
+      <c r="T60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20">
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+      <c r="H61" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" t="s">
+        <v>211</v>
+      </c>
+      <c r="S61" t="s">
+        <v>175</v>
+      </c>
+      <c r="T61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20">
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" t="s">
+        <v>212</v>
+      </c>
+      <c r="S62" t="s">
+        <v>175</v>
+      </c>
+      <c r="T62" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
